--- a/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
+++ b/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:56:13+00:00</t>
+    <t>2024-10-01T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
+++ b/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T20:52:52+00:00</t>
+    <t>2024-10-10T23:13:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
+++ b/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T23:13:09+00:00</t>
+    <t>2024-10-11T20:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
+++ b/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:59:30+00:00</t>
+    <t>2024-10-11T21:12:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
+++ b/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T21:12:40+00:00</t>
+    <t>2024-10-11T22:07:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
+++ b/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:07:31+00:00</t>
+    <t>2024-10-11T22:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
+++ b/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T18:40:48+00:00</t>
+    <t>2025-05-29T22:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
+++ b/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T22:30:32+00:00</t>
+    <t>2025-08-19T23:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
+++ b/release-branch/StructureDefinition-HCIMPatientChangeSubscription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T23:36:05+00:00</t>
+    <t>2025-08-27T22:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
